--- a/Google Analytics/Guide.xlsx
+++ b/Google Analytics/Guide.xlsx
@@ -8,25 +8,65 @@
   </bookViews>
   <sheets>
     <sheet name="Tổng quan" sheetId="1" r:id="rId1"/>
+    <sheet name="Liên kết" sheetId="2" r:id="rId2"/>
+    <sheet name="Báo cáo" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Phân tích trang web cấp doanh nghiệp.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Google Analytics</t>
+  </si>
+  <si>
+    <t>Phân tích, đo lường trang web cấp doanh nghiệp.</t>
+  </si>
+  <si>
+    <t>Hướng dẫn liên kết trang web với google analytics</t>
+  </si>
+  <si>
+    <t>TỔNG QUAN</t>
+  </si>
+  <si>
+    <t>Google Analytics không chỉ cho phép bạn đo lường doanh số bán hàng và chuyển đổi, 
+mà còn cung cấp cho bạn thông tin chuyên sâu mới về cách khách truy cập sử dụng trang web của bạn, 
+cách họ đến trang web của bạn và cách bạn có thể giữ họ quay lại.</t>
+  </si>
+  <si>
+    <t>CHI TIẾT</t>
+  </si>
+  <si>
+    <t>Chi tiết cách xem báo cáo từ google analytics</t>
+  </si>
+  <si>
+    <t>https://www.google.com/analytics</t>
+  </si>
+  <si>
+    <t>Truy cập https://www.google.com/analytics, đăng nhập bằng  tài khoản Google</t>
+  </si>
+  <si>
+    <t>Giao diện chính</t>
+  </si>
+  <si>
+    <t>2.1 Tab Quản trị</t>
+  </si>
+  <si>
+    <t>2.1.1 Thêm tài khoản mới</t>
+  </si>
+  <si>
+    <t>2.1.2 Thêm thuộc tính mới</t>
+  </si>
+  <si>
+    <t>2.1.3 Lấy mã liên kết, dán trước thẻ body của website cần theo dõi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -37,6 +77,20 @@
     <font>
       <sz val="24"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -59,14 +113,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -77,6 +137,239 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47353</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="190500"/>
+          <a:ext cx="5324474" cy="3476353"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>367568</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="4381500"/>
+          <a:ext cx="5244368" cy="3600450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>378401</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6096000" y="4381499"/>
+          <a:ext cx="5255201" cy="3609975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>18581</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="8382000"/>
+          <a:ext cx="5276849" cy="4400081"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6096000" y="8382000"/>
+          <a:ext cx="5591175" cy="4524375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>469777</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="13335000"/>
+          <a:ext cx="5346576" cy="3705225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -366,26 +659,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D2"/>
+  <dimension ref="B1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="33.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C9" location="'Liên kết'!A1" display="Hướng dẫn liên kết trang web với google analytics"/>
+    <hyperlink ref="C10" location="'Báo cáo'!A1" display="Chi tiết cách xem báo cáo từ google analytics"/>
+    <hyperlink ref="C6" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B70"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M74" sqref="M74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:4" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D2" t="s">
-        <v>0</v>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Google Analytics/Guide.xlsx
+++ b/Google Analytics/Guide.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tổng quan" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Google Analytics</t>
   </si>
@@ -30,11 +30,6 @@
     <t>TỔNG QUAN</t>
   </si>
   <si>
-    <t>Google Analytics không chỉ cho phép bạn đo lường doanh số bán hàng và chuyển đổi, 
-mà còn cung cấp cho bạn thông tin chuyên sâu mới về cách khách truy cập sử dụng trang web của bạn, 
-cách họ đến trang web của bạn và cách bạn có thể giữ họ quay lại.</t>
-  </si>
-  <si>
     <t>CHI TIẾT</t>
   </si>
   <si>
@@ -60,13 +55,28 @@
   </si>
   <si>
     <t>2.1.3 Lấy mã liên kết, dán trước thẻ body của website cần theo dõi</t>
+  </si>
+  <si>
+    <t>Google Analytics không chỉ cho phép bạn đo lường doanh số bán hàng và chuyển đổi</t>
+  </si>
+  <si>
+    <t>Cung cấp cho bạn thông tin chuyên sâu mới về cách khách truy cập sử dụng trang web của bạn</t>
+  </si>
+  <si>
+    <t>Cách họ đến trang web của bạn và cách bạn có thể giữ họ quay lại</t>
+  </si>
+  <si>
+    <t>Tab báo cáo</t>
+  </si>
+  <si>
+    <t>Tổng quan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,12 +90,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF444444"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -115,15 +119,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -372,6 +373,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>29363</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="571500"/>
+          <a:ext cx="6515100" cy="6125363"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -659,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C10"/>
+  <dimension ref="B1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,36 +729,49 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="2" t="s">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="2"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C9" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C10" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C9" location="'Liên kết'!A1" display="Hướng dẫn liên kết trang web với google analytics"/>
-    <hyperlink ref="C10" location="'Báo cáo'!A1" display="Chi tiết cách xem báo cáo từ google analytics"/>
-    <hyperlink ref="C6" r:id="rId1"/>
+    <hyperlink ref="C14" location="'Liên kết'!A1" display="Hướng dẫn liên kết trang web với google analytics"/>
+    <hyperlink ref="C15" location="'Báo cáo'!A1" display="Chi tiết cách xem báo cáo từ google analytics"/>
+    <hyperlink ref="C10" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -725,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M74" sqref="M74"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L72" sqref="L72:M82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,7 +793,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -744,27 +801,27 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -775,12 +832,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Google Analytics/Guide.xlsx
+++ b/Google Analytics/Guide.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Tổng quan" sheetId="1" r:id="rId1"/>
     <sheet name="Liên kết" sheetId="2" r:id="rId2"/>
     <sheet name="Báo cáo" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
   <si>
     <t>Google Analytics</t>
   </si>
@@ -54,9 +54,6 @@
     <t>2.1.2 Thêm thuộc tính mới</t>
   </si>
   <si>
-    <t>2.1.3 Lấy mã liên kết, dán trước thẻ body của website cần theo dõi</t>
-  </si>
-  <si>
     <t>Google Analytics không chỉ cho phép bạn đo lường doanh số bán hàng và chuyển đổi</t>
   </si>
   <si>
@@ -69,7 +66,160 @@
     <t>Tab báo cáo</t>
   </si>
   <si>
-    <t>Tổng quan</t>
+    <t>Tổng quan &gt;&gt; Báo cáo tổng quan</t>
+  </si>
+  <si>
+    <t>2.1.4 Lấy mã liên kết, dán trước thẻ body của website cần theo dõi</t>
+  </si>
+  <si>
+    <t>2.1.3 Thêm chế độ xem báo cáo mới</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểu: </t>
+  </si>
+  <si>
+    <t>Hàng giờ, ngày, tuần hay tháng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tất cã số phiên: </t>
+  </si>
+  <si>
+    <t>Số phiên đã có</t>
+  </si>
+  <si>
+    <t>Số người dùng</t>
+  </si>
+  <si>
+    <t>Số lần xem trang</t>
+  </si>
+  <si>
+    <t>Thời gian trung bình của phiên</t>
+  </si>
+  <si>
+    <t>Tỉ lệ thoát</t>
+  </si>
+  <si>
+    <t>Tỉ lệ quay lại trang</t>
+  </si>
+  <si>
+    <t>Phiên mới</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>Báo cáo thời gian thực</t>
+  </si>
+  <si>
+    <t>Số người đang hoạt động</t>
+  </si>
+  <si>
+    <t>Báo cáo các trang web được hoạt động ()</t>
+  </si>
+  <si>
+    <t>Nguồn giới thiệu</t>
+  </si>
+  <si>
+    <t>Lưu lượng truy cập trên mạng xã hội</t>
+  </si>
+  <si>
+    <t>Từ khóa hàng đầu</t>
+  </si>
+  <si>
+    <t>Vị trí người dùng</t>
+  </si>
+  <si>
+    <t>Thiết bị đang truy cập</t>
+  </si>
+  <si>
+    <t>Đối tượng</t>
+  </si>
+  <si>
+    <t>Báo cáo với các tiêu chí</t>
+  </si>
+  <si>
+    <t>Người dùng đang hoạt động</t>
+  </si>
+  <si>
+    <t>Phân tích theo nhóm</t>
+  </si>
+  <si>
+    <t>Nhân khẩu học. Độ tuổi  +  giới tính</t>
+  </si>
+  <si>
+    <t>Sở thích</t>
+  </si>
+  <si>
+    <t>Địa lý: Ngôn ngữ + vị trí</t>
+  </si>
+  <si>
+    <t>Hành vi người dùng</t>
+  </si>
+  <si>
+    <t>Hành vi người dùng:</t>
+  </si>
+  <si>
+    <t>Khách mới so với khách cũ</t>
+  </si>
+  <si>
+    <t>Tần xuất + truy cập gần đây</t>
+  </si>
+  <si>
+    <t>Mức độ tương tác</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công nghệ: </t>
+  </si>
+  <si>
+    <t>Trình duyệt HDH</t>
+  </si>
+  <si>
+    <t>Network</t>
+  </si>
+  <si>
+    <t>Di động &gt;&gt; thiết bị truy cập</t>
+  </si>
+  <si>
+    <t>Sức thu hút</t>
+  </si>
+  <si>
+    <t>Adword</t>
+  </si>
+  <si>
+    <t>Tối ưu hóa công cụ tìm kiếm</t>
+  </si>
+  <si>
+    <t>Thông qua mạng xã hội</t>
+  </si>
+  <si>
+    <t>Thông qua chiến dịch</t>
+  </si>
+  <si>
+    <t>Luồng hành vi</t>
+  </si>
+  <si>
+    <t>Nội dung trang web</t>
+  </si>
+  <si>
+    <t>Tốc độ tìm kiếm trang web</t>
+  </si>
+  <si>
+    <t>Tìm kiếm trang web</t>
+  </si>
+  <si>
+    <t>Sự kiện</t>
+  </si>
+  <si>
+    <t>Adsense</t>
+  </si>
+  <si>
+    <t>Link tham khảo:</t>
+  </si>
+  <si>
+    <t>https://support.google.com/analytics/answer/1008080?hl=vi&amp;ref_topic=1008079</t>
+  </si>
+  <si>
+    <t>https://www.google.com/analytics/web/#dashboard/default/a53908721w86719311p89979547/</t>
   </si>
 </sst>
 </file>
@@ -144,20 +294,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>47353</xdr:rowOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>175061</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -170,8 +320,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609601" y="190500"/>
-          <a:ext cx="5324474" cy="3476353"/>
+          <a:off x="1219201" y="13335001"/>
+          <a:ext cx="6553199" cy="4366060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -182,20 +332,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>367568</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>469776</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPr id="11" name="Picture 10"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -208,8 +358,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="4381500"/>
-          <a:ext cx="5244368" cy="3600450"/>
+          <a:off x="1219200" y="18288000"/>
+          <a:ext cx="5346576" cy="3705225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -220,20 +370,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>378401</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>18581</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPr id="16" name="Picture 15"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -246,8 +396,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6096000" y="4381499"/>
-          <a:ext cx="5255201" cy="3609975"/>
+          <a:off x="1219200" y="8382000"/>
+          <a:ext cx="5276849" cy="4400081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -258,20 +408,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>400049</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>18581</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPr id="17" name="Picture 16"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -284,8 +434,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="8382000"/>
-          <a:ext cx="5276849" cy="4400081"/>
+          <a:off x="6705600" y="8382000"/>
+          <a:ext cx="5591175" cy="4524375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -296,20 +446,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>367568</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPr id="18" name="Picture 17"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -322,8 +472,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6096000" y="8382000"/>
-          <a:ext cx="5591175" cy="4524375"/>
+          <a:off x="1219200" y="4381501"/>
+          <a:ext cx="5244368" cy="3600450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -334,20 +484,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>469777</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>378401</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14"/>
+        <xdr:cNvPr id="19" name="Picture 18"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -360,14 +510,366 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609601" y="13335000"/>
-          <a:ext cx="5346576" cy="3705225"/>
+          <a:off x="6705600" y="4381500"/>
+          <a:ext cx="5255201" cy="3609975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47353</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="190500"/>
+          <a:ext cx="5324474" cy="3476353"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>97511</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8534401" y="13335000"/>
+          <a:ext cx="6193510" cy="4381500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Notched Right Arrow 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6134100" y="6362700"/>
+          <a:ext cx="904875" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="notchedRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Notched Right Arrow 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6191250" y="10620375"/>
+          <a:ext cx="904875" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="notchedRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Notched Right Arrow 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7715250" y="15382875"/>
+          <a:ext cx="904875" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="notchedRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5114925" y="819150"/>
+          <a:ext cx="1476375" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rectangle 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2905125" y="20231100"/>
+          <a:ext cx="3429000" cy="1238250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -377,20 +879,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>29363</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="5" name="Picture 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -403,7 +905,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1219200" y="571500"/>
+          <a:off x="4876800" y="571500"/>
           <a:ext cx="6515100" cy="6125363"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -411,6 +913,458 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>30409</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876801" y="7239001"/>
+          <a:ext cx="7791450" cy="4030908"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>375736</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="12001500"/>
+          <a:ext cx="8300536" cy="5915025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>431293</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="18859501"/>
+          <a:ext cx="8965693" cy="6343650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>117471</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="26098500"/>
+          <a:ext cx="9010649" cy="6403971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4914900" y="1676400"/>
+          <a:ext cx="1314450" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4867276" y="8763000"/>
+          <a:ext cx="1057274" cy="1276349"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4810125" y="14316075"/>
+          <a:ext cx="1371600" cy="2714625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>28577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="22888577"/>
+          <a:ext cx="1524000" cy="1666874"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4781549" y="28946476"/>
+          <a:ext cx="1457325" cy="2076450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -703,10 +1657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C15"/>
+  <dimension ref="B1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,57 +1668,74 @@
     <col min="3" max="3" width="33.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:8" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C11" s="2"/>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -780,10 +1751,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L72" sqref="L72:M82"/>
+      <selection activeCell="N99" sqref="N99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,7 +1792,12 @@
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -832,28 +1808,267 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:F144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1.1000000000000001</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1.2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1.3</v>
+      </c>
+      <c r="B63" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>46</v>
+      </c>
+      <c r="F70" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F71" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="72" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F72" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="74" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>50</v>
+      </c>
+      <c r="F74" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="75" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F75" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="76" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>1.4</v>
+      </c>
+      <c r="B99" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C100" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C102" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C103" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>1.5</v>
+      </c>
+      <c r="B137" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C139" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D140" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D141" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D142" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D143" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D144" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
